--- a/計測指示＆記録.xlsx
+++ b/計測指示＆記録.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="444">
   <si>
     <t>topdir</t>
   </si>
@@ -1126,6 +1126,12 @@
     <t>2018/11/30/02:21</t>
   </si>
   <si>
+    <t>2018/11/30/02:30</t>
+  </si>
+  <si>
+    <t>2018/11/30/02:31</t>
+  </si>
+  <si>
     <t>2018/11/29/13:25</t>
   </si>
   <si>
@@ -1136,6 +1142,210 @@
   </si>
   <si>
     <t>2018/11/29/14:06</t>
+  </si>
+  <si>
+    <t>59.8286572047596</t>
+  </si>
+  <si>
+    <t>40.6893260308417</t>
+  </si>
+  <si>
+    <t>7.28746579106954</t>
+  </si>
+  <si>
+    <t>89.9730393958457</t>
+  </si>
+  <si>
+    <t>15.1210798881076</t>
+  </si>
+  <si>
+    <t>-45.6716755351177</t>
+  </si>
+  <si>
+    <t>76.7814347572772</t>
+  </si>
+  <si>
+    <t>145.139190390665</t>
+  </si>
+  <si>
+    <t>19.2357245157635</t>
+  </si>
+  <si>
+    <t>-6.17036744348921</t>
+  </si>
+  <si>
+    <t>4.46149319079268</t>
+  </si>
+  <si>
+    <t>32.5475699906932</t>
+  </si>
+  <si>
+    <t>153.941003460417</t>
+  </si>
+  <si>
+    <t>110.626413837746</t>
+  </si>
+  <si>
+    <t>-17.5393319102966</t>
+  </si>
+  <si>
+    <t>76.5547206386740</t>
+  </si>
+  <si>
+    <t>286.954323681016</t>
+  </si>
+  <si>
+    <t>220.186909840840</t>
+  </si>
+  <si>
+    <t>154.036143115115</t>
+  </si>
+  <si>
+    <t>183.271325460540</t>
+  </si>
+  <si>
+    <t>197.525348853758</t>
+  </si>
+  <si>
+    <t>190.227287435614</t>
+  </si>
+  <si>
+    <t>189.147197311072</t>
+  </si>
+  <si>
+    <t>184.350759710710</t>
+  </si>
+  <si>
+    <t>140.795537516228</t>
+  </si>
+  <si>
+    <t>147.383471697387</t>
+  </si>
+  <si>
+    <t>219.380341549961</t>
+  </si>
+  <si>
+    <t>224.439539820982</t>
+  </si>
+  <si>
+    <t>129.147124326164</t>
+  </si>
+  <si>
+    <t>151.681889647964</t>
+  </si>
+  <si>
+    <t>187.634533980187</t>
+  </si>
+  <si>
+    <t>109.973483937634</t>
+  </si>
+  <si>
+    <t>180.522925034144</t>
+  </si>
+  <si>
+    <t>224.122679255486</t>
+  </si>
+  <si>
+    <t>110.801171655508</t>
+  </si>
+  <si>
+    <t>48.5559565035806</t>
+  </si>
+  <si>
+    <t>181.607256106537</t>
+  </si>
+  <si>
+    <t>201.050393728294</t>
+  </si>
+  <si>
+    <t>81.1536339481884</t>
+  </si>
+  <si>
+    <t>91.0919010876830</t>
+  </si>
+  <si>
+    <t>224.805222484074</t>
+  </si>
+  <si>
+    <t>184.050434303876</t>
+  </si>
+  <si>
+    <t>44.3844909908400</t>
+  </si>
+  <si>
+    <t>120.379686862692</t>
+  </si>
+  <si>
+    <t>361.676699600980</t>
+  </si>
+  <si>
+    <t>308.956029843833</t>
+  </si>
+  <si>
+    <t>222.883414616654</t>
+  </si>
+  <si>
+    <t>244.104943926841</t>
+  </si>
+  <si>
+    <t>229.046152397089</t>
+  </si>
+  <si>
+    <t>237.035205495272</t>
+  </si>
+  <si>
+    <t>226.726660740374</t>
+  </si>
+  <si>
+    <t>281.275610904647</t>
+  </si>
+  <si>
+    <t>183.699736754138</t>
+  </si>
+  <si>
+    <t>141.733195151602</t>
+  </si>
+  <si>
+    <t>294.182430537284</t>
+  </si>
+  <si>
+    <t>335.714019005665</t>
+  </si>
+  <si>
+    <t>197.141631562878</t>
+  </si>
+  <si>
+    <t>186.479627742180</t>
+  </si>
+  <si>
+    <t>54.0628136242820</t>
+  </si>
+  <si>
+    <t>97.2149061830167</t>
+  </si>
+  <si>
+    <t>259.010045220418</t>
+  </si>
+  <si>
+    <t>184.127176734436</t>
+  </si>
+  <si>
+    <t>1.39709812799052</t>
+  </si>
+  <si>
+    <t>137.367204593438</t>
+  </si>
+  <si>
+    <t>371.500210266789</t>
+  </si>
+  <si>
+    <t>279.968066564947</t>
+  </si>
+  <si>
+    <t>212.348987777994</t>
+  </si>
+  <si>
+    <t>246.283961841039</t>
   </si>
 </sst>
 </file>
@@ -9356,8 +9566,8 @@
       <c r="E35" t="s">
         <v>124</v>
       </c>
-      <c r="F35">
-        <v>1</v>
+      <c r="F35" t="s">
+        <v>370</v>
       </c>
       <c r="G35">
         <v>182</v>
@@ -9394,6 +9604,180 @@
       </c>
       <c r="T35">
         <v>60</v>
+      </c>
+      <c r="V35">
+        <v>217.4425900564117</v>
+      </c>
+      <c r="W35">
+        <v>71.27972755480468</v>
+      </c>
+      <c r="X35">
+        <v>73.34426034041451</v>
+      </c>
+      <c r="Y35">
+        <v>0.65</v>
+      </c>
+      <c r="Z35">
+        <v>0.97</v>
+      </c>
+      <c r="AA35">
+        <v>434</v>
+      </c>
+      <c r="AB35">
+        <v>13006</v>
+      </c>
+      <c r="AC35">
+        <v>476</v>
+      </c>
+      <c r="AE35">
+        <v>12.00911309948948</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>376</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>378</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>382</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>384</v>
+      </c>
+      <c r="AK35">
+        <v>3.535533905932738</v>
+      </c>
+      <c r="AL35">
+        <v>1.840159124564514</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>386</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>388</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>390</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>392</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>394</v>
+      </c>
+      <c r="AR35">
+        <v>228.3513222471668</v>
+      </c>
+      <c r="AS35">
+        <v>181</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>396</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>398</v>
+      </c>
+      <c r="AV35">
+        <v>199.5</v>
+      </c>
+      <c r="AY35">
+        <v>68</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>400</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>402</v>
+      </c>
+      <c r="BB35">
+        <v>292.5</v>
+      </c>
+      <c r="BE35">
+        <v>164</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>404</v>
+      </c>
+      <c r="BG35" t="s">
+        <v>406</v>
+      </c>
+      <c r="BH35" t="s">
+        <v>408</v>
+      </c>
+      <c r="BI35" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ35" t="s">
+        <v>412</v>
+      </c>
+      <c r="BK35">
+        <v>196</v>
+      </c>
+      <c r="BL35">
+        <v>69</v>
+      </c>
+      <c r="BM35" t="s">
+        <v>414</v>
+      </c>
+      <c r="BN35" t="s">
+        <v>416</v>
+      </c>
+      <c r="BO35" t="s">
+        <v>418</v>
+      </c>
+      <c r="BP35" t="s">
+        <v>420</v>
+      </c>
+      <c r="BQ35" t="s">
+        <v>422</v>
+      </c>
+      <c r="BR35">
+        <v>292</v>
+      </c>
+      <c r="BS35">
+        <v>198</v>
+      </c>
+      <c r="BT35" t="s">
+        <v>424</v>
+      </c>
+      <c r="BU35" t="s">
+        <v>426</v>
+      </c>
+      <c r="BV35" t="s">
+        <v>428</v>
+      </c>
+      <c r="BW35" t="s">
+        <v>430</v>
+      </c>
+      <c r="BX35" t="s">
+        <v>432</v>
+      </c>
+      <c r="BY35">
+        <v>203</v>
+      </c>
+      <c r="BZ35">
+        <v>67</v>
+      </c>
+      <c r="CA35" t="s">
+        <v>434</v>
+      </c>
+      <c r="CB35" t="s">
+        <v>436</v>
+      </c>
+      <c r="CC35" t="s">
+        <v>438</v>
+      </c>
+      <c r="CD35" t="s">
+        <v>440</v>
+      </c>
+      <c r="CE35" t="s">
+        <v>442</v>
+      </c>
+      <c r="CF35">
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:84">
@@ -9412,8 +9796,8 @@
       <c r="E36" t="s">
         <v>125</v>
       </c>
-      <c r="F36">
-        <v>1</v>
+      <c r="F36" t="s">
+        <v>371</v>
       </c>
       <c r="G36">
         <v>202</v>
@@ -9450,6 +9834,180 @@
       </c>
       <c r="T36">
         <v>60</v>
+      </c>
+      <c r="V36">
+        <v>218.0562806485967</v>
+      </c>
+      <c r="W36">
+        <v>91.18845283861241</v>
+      </c>
+      <c r="X36">
+        <v>70.56826310545999</v>
+      </c>
+      <c r="Y36">
+        <v>0.61</v>
+      </c>
+      <c r="Z36">
+        <v>0.93</v>
+      </c>
+      <c r="AA36">
+        <v>356</v>
+      </c>
+      <c r="AB36">
+        <v>16702</v>
+      </c>
+      <c r="AC36">
+        <v>468</v>
+      </c>
+      <c r="AE36">
+        <v>17.28277884034985</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>377</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>379</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>381</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>383</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>385</v>
+      </c>
+      <c r="AK36">
+        <v>4.693375946776246</v>
+      </c>
+      <c r="AL36">
+        <v>8.043285674675767</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>387</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>389</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>391</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>393</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR36">
+        <v>234.8458050907749</v>
+      </c>
+      <c r="AS36">
+        <v>201</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>397</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>399</v>
+      </c>
+      <c r="AV36">
+        <v>201.5</v>
+      </c>
+      <c r="AY36">
+        <v>73</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>401</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>403</v>
+      </c>
+      <c r="BB36">
+        <v>298.5</v>
+      </c>
+      <c r="BE36">
+        <v>183</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>405</v>
+      </c>
+      <c r="BG36" t="s">
+        <v>407</v>
+      </c>
+      <c r="BH36" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI36" t="s">
+        <v>411</v>
+      </c>
+      <c r="BJ36" t="s">
+        <v>413</v>
+      </c>
+      <c r="BK36">
+        <v>197</v>
+      </c>
+      <c r="BL36">
+        <v>71</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>415</v>
+      </c>
+      <c r="BN36" t="s">
+        <v>417</v>
+      </c>
+      <c r="BO36" t="s">
+        <v>419</v>
+      </c>
+      <c r="BP36" t="s">
+        <v>421</v>
+      </c>
+      <c r="BQ36" t="s">
+        <v>423</v>
+      </c>
+      <c r="BR36">
+        <v>299</v>
+      </c>
+      <c r="BS36">
+        <v>219</v>
+      </c>
+      <c r="BT36" t="s">
+        <v>425</v>
+      </c>
+      <c r="BU36" t="s">
+        <v>427</v>
+      </c>
+      <c r="BV36" t="s">
+        <v>429</v>
+      </c>
+      <c r="BW36" t="s">
+        <v>431</v>
+      </c>
+      <c r="BX36" t="s">
+        <v>433</v>
+      </c>
+      <c r="BY36">
+        <v>206</v>
+      </c>
+      <c r="BZ36">
+        <v>75</v>
+      </c>
+      <c r="CA36" t="s">
+        <v>435</v>
+      </c>
+      <c r="CB36" t="s">
+        <v>437</v>
+      </c>
+      <c r="CC36" t="s">
+        <v>439</v>
+      </c>
+      <c r="CD36" t="s">
+        <v>441</v>
+      </c>
+      <c r="CE36" t="s">
+        <v>443</v>
+      </c>
+      <c r="CF36">
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:84">
@@ -10197,7 +10755,7 @@
         <v>139</v>
       </c>
       <c r="F50" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G50">
         <v>181</v>
@@ -10427,7 +10985,7 @@
         <v>140</v>
       </c>
       <c r="F51" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G51">
         <v>187</v>
@@ -10657,7 +11215,7 @@
         <v>141</v>
       </c>
       <c r="F52" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G52">
         <v>180</v>
@@ -10887,7 +11445,7 @@
         <v>142</v>
       </c>
       <c r="F53" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G53">
         <v>191</v>
